--- a/data/trans_dic/P16A06-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A06-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.02325939883767318</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.03680490917057392</v>
+        <v>0.03680490917057393</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.02527033682031394</v>
@@ -685,7 +685,7 @@
         <v>0.08769905841715199</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.06193783077461639</v>
+        <v>0.06193783077461638</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.02012395241836948</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.003259251029368993</v>
+        <v>0.003250741011823104</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.008851208716184925</v>
+        <v>0.008905351406894553</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.008748709744636336</v>
+        <v>0.008006386811981892</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02243067366056636</v>
+        <v>0.02251885463780753</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.008763316601579581</v>
+        <v>0.008817149540036467</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03439853576344101</v>
+        <v>0.03391713301315496</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05623090841316001</v>
+        <v>0.05689758883791125</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.043558439509516</v>
+        <v>0.04275869244532137</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01005910894748602</v>
+        <v>0.009386496830438948</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02616895253197048</v>
+        <v>0.02594667167459661</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03800112413163335</v>
+        <v>0.03804363705125679</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03702846183167352</v>
+        <v>0.03678689787184413</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04090024716556472</v>
+        <v>0.03948761842964303</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04875730163164087</v>
+        <v>0.04739352879411603</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04962806998161193</v>
+        <v>0.04904950435025358</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05806943783490164</v>
+        <v>0.06015698993730637</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05304250582811774</v>
+        <v>0.05097598531593404</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09674756487991233</v>
+        <v>0.09247183648242192</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1284611800805237</v>
+        <v>0.1261834435638568</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08281361048937894</v>
+        <v>0.08231723042736251</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03718974736218957</v>
+        <v>0.0354350782473636</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06130095629121234</v>
+        <v>0.05994132128244794</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07926386819714414</v>
+        <v>0.07903236111952976</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06363064004666727</v>
+        <v>0.06374490898530835</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.005935309329925679</v>
+        <v>0.005795189846101903</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0116404456651778</v>
+        <v>0.01162034305060792</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01502993594866312</v>
+        <v>0.01445400241251884</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0328388821708509</v>
+        <v>0.03499418639967636</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03983644377117129</v>
+        <v>0.03916919428109912</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05320926950568131</v>
+        <v>0.05485338407369577</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04814874108411066</v>
+        <v>0.04802244840975554</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08928945447464451</v>
+        <v>0.08872266337361642</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02516504498645097</v>
+        <v>0.02563562808812372</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03681379915132841</v>
+        <v>0.03692140387244797</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03477506536009823</v>
+        <v>0.0353072602316531</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06542353927697873</v>
+        <v>0.06746188642226671</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02657143513796468</v>
+        <v>0.02786083833575507</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0491511653936032</v>
+        <v>0.0494926809942748</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0433363595693003</v>
+        <v>0.04375809825840889</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07466651791043794</v>
+        <v>0.07491276740894601</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08261464324042163</v>
+        <v>0.08053977033456931</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1089075840048578</v>
+        <v>0.1031629402186701</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09530967182059118</v>
+        <v>0.09445529613001846</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1319086883789993</v>
+        <v>0.1325120866480225</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04885945051075696</v>
+        <v>0.04827113750793405</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06814683050395401</v>
+        <v>0.06813077380806674</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06328526893803002</v>
+        <v>0.06437183889009421</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09627457763898981</v>
+        <v>0.09736496486371418</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.02699953394923293</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.0865148915417245</v>
+        <v>0.08651489154172451</v>
       </c>
     </row>
     <row r="11">
@@ -983,37 +983,37 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.006040209127147469</v>
+        <v>0.005673421781149962</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0399302924987599</v>
+        <v>0.03997849445845407</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.002730352626847416</v>
+        <v>0.002726876234458726</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01151104935055606</v>
+        <v>0.01162784054247783</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02629571980983427</v>
+        <v>0.02693607696052314</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08228672812745652</v>
+        <v>0.08515676559155441</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.001494300878046911</v>
+        <v>0.001479140149467694</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01078650657820703</v>
+        <v>0.01056673246011569</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01666129078620053</v>
+        <v>0.0161046898599639</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07091784832155408</v>
+        <v>0.07004368711521081</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01382519757537943</v>
+        <v>0.01293263325387184</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03365874381999061</v>
+        <v>0.03187618639446844</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02420429596937891</v>
+        <v>0.02215147701989031</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0889050120806901</v>
+        <v>0.09072061529013813</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02730912858467788</v>
+        <v>0.02452263365719222</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04440122161915209</v>
+        <v>0.04752652390826715</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07512679479107086</v>
+        <v>0.07330268872602277</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1328585825520077</v>
+        <v>0.1355695225979969</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01475085423303685</v>
+        <v>0.01457548171088501</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03395255450232629</v>
+        <v>0.03394906168872829</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04257698692366669</v>
+        <v>0.04325763170213383</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1067203265153695</v>
+        <v>0.1063745516172357</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002850851736022321</v>
+        <v>0.002855446187480326</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.008155381296664146</v>
+        <v>0.008184923172435311</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01123068604666016</v>
+        <v>0.01112198698188309</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03496604427446432</v>
+        <v>0.03453585257020599</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01617356175879297</v>
+        <v>0.01678818618725851</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05225858738509466</v>
+        <v>0.05151219699685478</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06795685401080835</v>
+        <v>0.06890331004257887</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06798560360149235</v>
+        <v>0.06781520873541755</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01245348950601393</v>
+        <v>0.01245026259965023</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03237751519642335</v>
+        <v>0.03402128267737829</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04438638275578701</v>
+        <v>0.04435493814500861</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05838789544009366</v>
+        <v>0.05739544700583037</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03129969516865115</v>
+        <v>0.03126111955945761</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03863128306477892</v>
+        <v>0.03679554855442572</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04487269082629665</v>
+        <v>0.0458933247189954</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08990438442778255</v>
+        <v>0.08882418199423787</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0538140664029071</v>
+        <v>0.05523831449143123</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1068242445214651</v>
+        <v>0.105345491478958</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1280486696022446</v>
+        <v>0.1301047507825202</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1223485992089453</v>
+        <v>0.1227295413860492</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03487309482793405</v>
+        <v>0.03496726233774875</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06330177859655865</v>
+        <v>0.06523378569720023</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08138857089874596</v>
+        <v>0.08000232588165383</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09732595631844246</v>
+        <v>0.09722694423010099</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.00856673074621616</v>
+        <v>0.008425246442926476</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.008771184570169075</v>
+        <v>0.009189242036879154</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01420982324134696</v>
+        <v>0.01740209379623989</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0178319098714409</v>
+        <v>0.01794236524519057</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02988855050205474</v>
+        <v>0.0312556696627479</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.126582371410407</v>
+        <v>0.1272334227377638</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05447173585999248</v>
+        <v>0.05440550873357414</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07996902297166283</v>
+        <v>0.08106892801964259</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02346548923916258</v>
+        <v>0.02259995996571398</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07411050297211448</v>
+        <v>0.0750126813466398</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04096598398340053</v>
+        <v>0.04011614872107433</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05529925276395779</v>
+        <v>0.05539710595180559</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05084980814638018</v>
+        <v>0.04538768215105227</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05471565399264682</v>
+        <v>0.05702829045397134</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0701870484291502</v>
+        <v>0.07567773265315197</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05609556045945722</v>
+        <v>0.0572567208088527</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.09270648964702845</v>
+        <v>0.09406678753004984</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2347036140407139</v>
+        <v>0.232199068703781</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1296949912706532</v>
+        <v>0.129463487037099</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1314243521260227</v>
+        <v>0.1304012389082159</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06075608237890408</v>
+        <v>0.06066762324870711</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1316238967492318</v>
+        <v>0.134934723448275</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.08861571322149421</v>
+        <v>0.08753545134298431</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08812275180501569</v>
+        <v>0.08844792911175371</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.03895531718067619</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.08996043983819878</v>
+        <v>0.08996043983819876</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.02521538095774021</v>
@@ -1365,7 +1365,7 @@
         <v>0.1109439361372927</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1648637666440139</v>
+        <v>0.1648637666440138</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.01815633510655696</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003525899653085398</v>
+        <v>0.00350125826213472</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02134386140399754</v>
+        <v>0.01895384562246578</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.06505380566080768</v>
+        <v>0.06836968571866348</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01069300519681511</v>
+        <v>0.01077032472724538</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01785268184312335</v>
+        <v>0.01729620853136643</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.07540210230954064</v>
+        <v>0.07432221430468416</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1371075798250398</v>
+        <v>0.1367755639137531</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.009236627666877129</v>
+        <v>0.008870662647462207</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01107001160486351</v>
+        <v>0.01186624802606027</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.05415252846115377</v>
+        <v>0.05521976456304104</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1079948366663378</v>
+        <v>0.1072171295554185</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03201250287993491</v>
+        <v>0.02958928199962693</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02266424007844333</v>
+        <v>0.02229595981938192</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0721015818927711</v>
+        <v>0.06628845356261645</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1180862550723736</v>
+        <v>0.1221155797797712</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.05412262461813382</v>
+        <v>0.05382281162399619</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.06440074885757352</v>
+        <v>0.06664815104045987</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1539534786212887</v>
+        <v>0.1568323047870918</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1997599040358392</v>
+        <v>0.1991631951503129</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03263628568438846</v>
+        <v>0.03108923060085689</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.03874797779432289</v>
+        <v>0.03908460453533528</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.09827053406176912</v>
+        <v>0.09953319936071893</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1477597631835922</v>
+        <v>0.1483055319676393</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.06687484990914232</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.0914751050256791</v>
+        <v>0.09147510502567908</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01122346445078335</v>
+        <v>0.01120466918160138</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.004593876999458763</v>
+        <v>0.004715069899727478</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0332577212777479</v>
+        <v>0.03242254179670025</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03791131047265991</v>
+        <v>0.03985074127770249</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02482557898456096</v>
+        <v>0.0244152502019807</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01553710419487371</v>
+        <v>0.01619433633420174</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.06462624752551725</v>
+        <v>0.06158536665558827</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.106046872930914</v>
+        <v>0.1044323255000884</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0202422578862629</v>
+        <v>0.02136127200196233</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.01295863776119951</v>
+        <v>0.01258391869758319</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.05413253149098934</v>
+        <v>0.0541855422457446</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.07805542963093906</v>
+        <v>0.07921256091504573</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0334143586443523</v>
+        <v>0.03363741884962897</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0246932360264171</v>
+        <v>0.0255860725892477</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06857551216627084</v>
+        <v>0.06804220900719304</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.07644382717474178</v>
+        <v>0.07640843206908537</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05506748112767418</v>
+        <v>0.05439758694839016</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04146254705082347</v>
+        <v>0.04267256470215107</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1100046739673841</v>
+        <v>0.1070139714334521</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1492854358318165</v>
+        <v>0.1470720130891714</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04009078745166642</v>
+        <v>0.03999679882255384</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02883891841136551</v>
+        <v>0.02998105414851852</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.08419045658869759</v>
+        <v>0.08203760515702248</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1078611081669383</v>
+        <v>0.1077910038569238</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.01101101076476875</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.03895702248832689</v>
+        <v>0.03895702248832688</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.06122439684108448</v>
@@ -1637,7 +1637,7 @@
         <v>0.05496665017571049</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.08157818523664301</v>
+        <v>0.08157818523664302</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.05032383259678471</v>
@@ -1649,7 +1649,7 @@
         <v>0.03364051620816629</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.06068559764708693</v>
+        <v>0.06068559764708692</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0274583064159654</v>
+        <v>0.02606946600071736</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0182876132415406</v>
+        <v>0.01900576569732957</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.004878882904891846</v>
+        <v>0.00496418128379446</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02829655547715432</v>
+        <v>0.02772908760463149</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.0449543082658451</v>
+        <v>0.04690397038543181</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.05785776324318049</v>
+        <v>0.06013776715394631</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.03874651078029424</v>
+        <v>0.04068075497692777</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.06680307032707868</v>
+        <v>0.06531280183383804</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.0404036858962079</v>
+        <v>0.04013249568536566</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.04373305205724804</v>
+        <v>0.0432060951542697</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.02542469558659712</v>
+        <v>0.02524275743864116</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.0506800486761398</v>
+        <v>0.05135053502621865</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.05476527929269581</v>
+        <v>0.05481800947224853</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04660107625807949</v>
+        <v>0.04713297212068328</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02113028837035766</v>
+        <v>0.02209527123668875</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.05294911107530104</v>
+        <v>0.05235869477815896</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.07882537557409584</v>
+        <v>0.08144105058346945</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.09801930074738679</v>
+        <v>0.09882209628589347</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.07380078897738335</v>
+        <v>0.07411353549874219</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.09751390976718281</v>
+        <v>0.09680956542004436</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.06216347410261404</v>
+        <v>0.06359269999336754</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.06711202572927991</v>
+        <v>0.06657845093267366</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.04409385886567269</v>
+        <v>0.04473159412574945</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.07142576030055087</v>
+        <v>0.07193656753391718</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01509827393998887</v>
+        <v>0.01538313300508612</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.0155976375500699</v>
+        <v>0.01542652395770602</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.02076918078736823</v>
+        <v>0.02105974645087524</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.0446093266404025</v>
+        <v>0.04452955782502468</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.03502399801350245</v>
+        <v>0.03518141311012241</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.05430055052115479</v>
+        <v>0.05448585122677276</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.06645476528252289</v>
+        <v>0.06666273048603999</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.09615546920544037</v>
+        <v>0.09641463198344308</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.02674597882471792</v>
+        <v>0.02668818136083243</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.03727061587045739</v>
+        <v>0.03713493409252261</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.04620125524850467</v>
+        <v>0.04596183005750792</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.07309293661485501</v>
+        <v>0.07321867437972497</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.02503087878076363</v>
+        <v>0.02548867461731896</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.02633954213424029</v>
+        <v>0.02628605011142104</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.03303403484778396</v>
+        <v>0.03259583594031968</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.05950962741388288</v>
+        <v>0.05903809616286451</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.04943968517215509</v>
+        <v>0.05000566053252023</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.07163675623897342</v>
+        <v>0.07128453491620509</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.08508730626791236</v>
+        <v>0.08531159529380468</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1129229198503146</v>
+        <v>0.1122552625935198</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.03545576726012677</v>
+        <v>0.03549653458647305</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.04723736166820097</v>
+        <v>0.04796434267501914</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.05711860189978623</v>
+        <v>0.05686388005200057</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.08364195866866291</v>
+        <v>0.08411068898913487</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2576</v>
+        <v>2592</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2570</v>
+        <v>2352</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7152</v>
+        <v>7180</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2286</v>
+        <v>2300</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>9609</v>
+        <v>9474</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>16234</v>
+        <v>16427</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13767</v>
+        <v>13514</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5370</v>
+        <v>5011</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>14925</v>
+        <v>14799</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>22134</v>
+        <v>22159</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>23510</v>
+        <v>23356</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11166</v>
+        <v>10781</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14189</v>
+        <v>13792</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14579</v>
+        <v>14409</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>18515</v>
+        <v>19181</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>13836</v>
+        <v>13296</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>27024</v>
+        <v>25830</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>37087</v>
+        <v>36430</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>26174</v>
+        <v>26017</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>19854</v>
+        <v>18917</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>34963</v>
+        <v>34187</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>46168</v>
+        <v>46034</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>40399</v>
+        <v>40472</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2927</v>
+        <v>2857</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5885</v>
+        <v>5874</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7554</v>
+        <v>7264</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>17393</v>
+        <v>18535</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>20076</v>
+        <v>19739</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>27814</v>
+        <v>28674</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>25186</v>
+        <v>25120</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>48682</v>
+        <v>48373</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>25090</v>
+        <v>25559</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>37854</v>
+        <v>37965</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>35667</v>
+        <v>36213</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>70322</v>
+        <v>72513</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13102</v>
+        <v>13737</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>24847</v>
+        <v>25020</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>21780</v>
+        <v>21992</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>39548</v>
+        <v>39678</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>41634</v>
+        <v>40588</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>56929</v>
+        <v>53926</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>49855</v>
+        <v>49408</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>71918</v>
+        <v>72247</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>48714</v>
+        <v>48127</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>70073</v>
+        <v>70056</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>64909</v>
+        <v>66024</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>103483</v>
+        <v>104655</v>
       </c>
     </row>
     <row r="12">
@@ -2511,37 +2511,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1952</v>
+        <v>1833</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>12598</v>
+        <v>12613</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3925</v>
+        <v>3965</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8843</v>
+        <v>9059</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>29325</v>
+        <v>30348</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>7164</v>
+        <v>7018</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>10911</v>
+        <v>10547</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>47648</v>
+        <v>47061</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4408</v>
+        <v>4124</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10876</v>
+        <v>10300</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7711</v>
+        <v>7057</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>28049</v>
+        <v>28622</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9160</v>
+        <v>8225</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>15142</v>
+        <v>16207</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>25266</v>
+        <v>24652</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>47348</v>
+        <v>48314</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>9651</v>
+        <v>9536</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>22549</v>
+        <v>22547</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>27883</v>
+        <v>28328</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>71703</v>
+        <v>71471</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3050</v>
+        <v>3061</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4155</v>
+        <v>4115</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>13047</v>
+        <v>12887</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6008</v>
+        <v>6236</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>20275</v>
+        <v>19985</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>26319</v>
+        <v>26685</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>28665</v>
+        <v>28593</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>9093</v>
+        <v>9090</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>24670</v>
+        <v>25923</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>33611</v>
+        <v>33588</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>46405</v>
+        <v>45616</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11226</v>
+        <v>11212</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>14447</v>
+        <v>13761</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16601</v>
+        <v>16979</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>33547</v>
+        <v>33144</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>19990</v>
+        <v>20519</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>41445</v>
+        <v>40871</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>49591</v>
+        <v>50387</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>51586</v>
+        <v>51746</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>25462</v>
+        <v>25531</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>48233</v>
+        <v>49705</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>61631</v>
+        <v>60582</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>77352</v>
+        <v>77274</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1742</v>
+        <v>1713</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1865</v>
+        <v>1954</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3001</v>
+        <v>3676</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3667</v>
+        <v>3690</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6207</v>
+        <v>6491</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>27796</v>
+        <v>27939</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>11907</v>
+        <v>11892</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>18170</v>
+        <v>18420</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>9644</v>
+        <v>9288</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>32031</v>
+        <v>32421</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>17608</v>
+        <v>17242</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>23938</v>
+        <v>23980</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>10338</v>
+        <v>9228</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11634</v>
+        <v>12125</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>14825</v>
+        <v>15985</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>11537</v>
+        <v>11776</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>19252</v>
+        <v>19535</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>51539</v>
+        <v>50989</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>28350</v>
+        <v>28299</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>29862</v>
+        <v>29629</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>24969</v>
+        <v>24933</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>56889</v>
+        <v>58320</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>38088</v>
+        <v>37623</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>38146</v>
+        <v>38287</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>5616</v>
+        <v>4987</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>17611</v>
+        <v>18508</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>2974</v>
+        <v>2996</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>4983</v>
+        <v>4828</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>20593</v>
+        <v>20299</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>36162</v>
+        <v>36075</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>5070</v>
+        <v>4870</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>6123</v>
+        <v>6563</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>29039</v>
+        <v>29611</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>57719</v>
+        <v>57303</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8669</v>
+        <v>8013</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6210</v>
+        <v>6109</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>18972</v>
+        <v>17442</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>31967</v>
+        <v>33058</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>15054</v>
+        <v>14970</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>17977</v>
+        <v>18604</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>42047</v>
+        <v>42833</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>52687</v>
+        <v>52529</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>17916</v>
+        <v>17067</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>21432</v>
+        <v>21619</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>52696</v>
+        <v>53373</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>78971</v>
+        <v>79263</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>6903</v>
+        <v>6891</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3040</v>
+        <v>3120</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>21836</v>
+        <v>21287</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>27284</v>
+        <v>28680</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>15844</v>
+        <v>15582</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>10780</v>
+        <v>11236</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>44676</v>
+        <v>42574</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>81723</v>
+        <v>80479</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>25369</v>
+        <v>26771</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>17567</v>
+        <v>17059</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>72963</v>
+        <v>73034</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>116328</v>
+        <v>118052</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>20551</v>
+        <v>20688</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>16341</v>
+        <v>16932</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>45024</v>
+        <v>44674</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>55016</v>
+        <v>54990</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>35145</v>
+        <v>34718</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>28769</v>
+        <v>29608</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>76046</v>
+        <v>73978</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>115044</v>
+        <v>113339</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>50244</v>
+        <v>50126</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>39094</v>
+        <v>40643</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>113476</v>
+        <v>110575</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>160748</v>
+        <v>160643</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>20395</v>
+        <v>19364</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>14190</v>
+        <v>14747</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>3799</v>
+        <v>3865</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>22583</v>
+        <v>22130</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>35222</v>
+        <v>36750</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>47531</v>
+        <v>49404</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>32011</v>
+        <v>33609</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>55447</v>
+        <v>54210</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>61668</v>
+        <v>61254</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>69862</v>
+        <v>69020</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>40800</v>
+        <v>40508</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>82511</v>
+        <v>83603</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>40678</v>
+        <v>40718</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>36160</v>
+        <v>36572</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>16452</v>
+        <v>17203</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>42257</v>
+        <v>41786</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>61761</v>
+        <v>63810</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>80525</v>
+        <v>81184</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>60972</v>
+        <v>61230</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>80937</v>
+        <v>80353</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>94879</v>
+        <v>97061</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>107209</v>
+        <v>106357</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>70760</v>
+        <v>71783</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>116287</v>
+        <v>117118</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>49455</v>
+        <v>50388</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>53312</v>
+        <v>52727</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>70498</v>
+        <v>71484</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>157528</v>
+        <v>157246</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>118353</v>
+        <v>118885</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>192504</v>
+        <v>193161</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>235552</v>
+        <v>236289</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>358746</v>
+        <v>359712</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>177987</v>
+        <v>177602</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>259519</v>
+        <v>258574</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>320586</v>
+        <v>318924</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>530813</v>
+        <v>531726</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>81989</v>
+        <v>83489</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>90027</v>
+        <v>89844</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>112129</v>
+        <v>110642</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>210145</v>
+        <v>208480</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>167066</v>
+        <v>168979</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>253964</v>
+        <v>252715</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>301596</v>
+        <v>302391</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>421303</v>
+        <v>418812</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>235948</v>
+        <v>236220</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>328918</v>
+        <v>333981</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>396340</v>
+        <v>394572</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>607422</v>
+        <v>610826</v>
       </c>
     </row>
     <row r="40">
